--- a/kadai02/作業日報.xlsx
+++ b/kadai02/作業日報.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://denpa-my.sharepoint.com/personal/satoru_okuda_denpa_jp/Documents/ドキュメント/授業/ゼミナールⅡ/後期PHP授業/02学園祭の店管理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yumasatake/Documents/Github/phpLearning/kadai02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_AD4D066CA252ABDACC1048687956C8A473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C674EF-BE04-406C-8059-208DE0A67636}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC786A1B-AAA9-794A-99A7-881A563B4A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="5640" windowWidth="20720" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -74,22 +74,6 @@
     <t>見本</t>
     <rPh sb="0" eb="2">
       <t>ミホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>情報総合学科2年〇組　〇番 〇〇　〇〇</t>
-    <rPh sb="0" eb="6">
-      <t>ジョウホウソウゴウガッカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>バン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -267,12 +251,42 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>情報総合学科2年A組　15番 佐竹友真</t>
+    <rPh sb="0" eb="6">
+      <t>ジョウホウソウゴウガッカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>サタケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ作成</t>
+  </si>
+  <si>
+    <t>トップページ作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bootstrapを用いてスタイリングをつけた</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +296,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -329,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,20 +693,21 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="87.375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -695,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="52.9">
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -706,34 +732,52 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="3">
+        <v>45209</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="3">
+        <v>45210</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="3">
+        <v>45242</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -741,7 +785,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -749,7 +793,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -757,7 +801,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -765,7 +809,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -773,7 +817,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -781,7 +825,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -789,7 +833,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -797,7 +841,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -805,7 +849,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -813,7 +857,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -821,7 +865,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -829,7 +873,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -837,7 +881,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -845,7 +889,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -853,7 +897,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -861,7 +905,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -869,7 +913,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -877,7 +921,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -885,7 +929,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -893,7 +937,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -901,7 +945,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -909,7 +953,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -917,7 +961,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -925,7 +969,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -933,7 +977,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -941,7 +985,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -949,7 +993,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -957,7 +1001,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -965,7 +1009,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -973,7 +1017,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -981,7 +1025,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -989,7 +1033,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -997,7 +1041,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -1023,39 +1067,39 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="138.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="150" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="73.5" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="8" spans="1:1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="84" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1314,15 +1358,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="626b6a8e-59c6-42e5-89b7-3fc4fafb688a">
@@ -1333,14 +1368,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDBCB9DE-C70F-4F8F-BEC5-4716A238BCC1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDBCB9DE-C70F-4F8F-BEC5-4716A238BCC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="626b6a8e-59c6-42e5-89b7-3fc4fafb688a"/>
+    <ds:schemaRef ds:uri="0d3c27ef-cb52-4ea2-a62a-ed02f6e3b684"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE9871F3-C079-41ED-8ADF-CD5E34891288}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{055DAFDE-2008-4E71-98EB-86A70F7550A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="626b6a8e-59c6-42e5-89b7-3fc4fafb688a"/>
+    <ds:schemaRef ds:uri="0d3c27ef-cb52-4ea2-a62a-ed02f6e3b684"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{055DAFDE-2008-4E71-98EB-86A70F7550A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE9871F3-C079-41ED-8ADF-CD5E34891288}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/kadai02/作業日報.xlsx
+++ b/kadai02/作業日報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yumasatake/Documents/Github/phpLearning/kadai02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC786A1B-AAA9-794A-99A7-881A563B4A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB4CA94-7575-8946-859D-C2DE517B1142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="5640" windowWidth="20720" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18440" yWindow="11160" windowWidth="20720" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -279,6 +279,27 @@
   </si>
   <si>
     <t>Bootstrapを用いてスタイリングをつけた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真のGridを追加した</t>
+    <rPh sb="0" eb="2">
+      <t>シャシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルプ対応をした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>navbarインポート化・product.php作成</t>
+    <rPh sb="11" eb="12">
+      <t>バケル</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -693,7 +714,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -743,13 +764,13 @@
         <v>45209</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -757,7 +778,7 @@
         <v>45210</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
@@ -768,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>45242</v>
+        <v>45211</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -777,29 +798,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>45216</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>45217</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3">
+        <v>45218</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
